--- a/data_month/zb/工业/工业主要产品产量/大型拖拉机.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/大型拖拉机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2690 +454,3124 @@
           <t>大型拖拉机产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大型拖拉机产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.6</v>
+        <v>51.4</v>
       </c>
       <c r="C2" t="n">
-        <v>3567</v>
+        <v>5917</v>
       </c>
       <c r="D2" t="n">
-        <v>69624</v>
+        <v>9958</v>
       </c>
       <c r="E2" t="n">
-        <v>24.3</v>
+        <v>13.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.8</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>3532</v>
+        <v>11534</v>
       </c>
       <c r="D3" t="n">
-        <v>73182</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="n">
-        <v>25.6</v>
+        <v>40.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C4" t="n">
-        <v>6567</v>
+        <v>13928</v>
       </c>
       <c r="D4" t="n">
-        <v>74718</v>
+        <v>33208</v>
       </c>
       <c r="E4" t="n">
-        <v>30.7</v>
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.4</v>
+        <v>16.7</v>
       </c>
       <c r="C5" t="n">
-        <v>5917</v>
+        <v>8162</v>
       </c>
       <c r="D5" t="n">
-        <v>9958</v>
+        <v>41370</v>
       </c>
       <c r="E5" t="n">
-        <v>13.5</v>
+        <v>40.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>-13.8</v>
       </c>
       <c r="C6" t="n">
-        <v>11534</v>
+        <v>3711</v>
       </c>
       <c r="D6" t="n">
-        <v>20000</v>
+        <v>46186.9</v>
       </c>
       <c r="E6" t="n">
-        <v>40.6</v>
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4816.900000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.5</v>
+        <v>-30.3</v>
       </c>
       <c r="C7" t="n">
-        <v>13928</v>
+        <v>3280.1</v>
       </c>
       <c r="D7" t="n">
-        <v>33208</v>
+        <v>49467</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3280.099999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.7</v>
+        <v>14.2</v>
       </c>
       <c r="C8" t="n">
-        <v>8162</v>
+        <v>4931</v>
       </c>
       <c r="D8" t="n">
-        <v>41370</v>
+        <v>54398</v>
       </c>
       <c r="E8" t="n">
-        <v>40.3</v>
+        <v>23.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13.8</v>
+        <v>38.1</v>
       </c>
       <c r="C9" t="n">
-        <v>3711</v>
+        <v>7839</v>
       </c>
       <c r="D9" t="n">
-        <v>46186.9</v>
+        <v>66057</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>24.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.3</v>
+        <v>27.6</v>
       </c>
       <c r="C10" t="n">
-        <v>3280.1</v>
+        <v>3567</v>
       </c>
       <c r="D10" t="n">
-        <v>49467</v>
+        <v>69624</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>24.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.2</v>
+        <v>56.8</v>
       </c>
       <c r="C11" t="n">
-        <v>4931</v>
+        <v>3532</v>
       </c>
       <c r="D11" t="n">
-        <v>54398</v>
+        <v>73182</v>
       </c>
       <c r="E11" t="n">
-        <v>23.9</v>
+        <v>25.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.1</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>7839</v>
+        <v>6567</v>
       </c>
       <c r="D12" t="n">
-        <v>66057</v>
+        <v>74718</v>
       </c>
       <c r="E12" t="n">
-        <v>24.1</v>
+        <v>30.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.4</v>
+        <v>9.4</v>
       </c>
       <c r="C13" t="n">
-        <v>5087</v>
+        <v>7886</v>
       </c>
       <c r="D13" t="n">
-        <v>74443</v>
+        <v>15195</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.9</v>
+        <v>36.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C14" t="n">
-        <v>4197</v>
+        <v>12774</v>
       </c>
       <c r="D14" t="n">
-        <v>78640</v>
+        <v>27969</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.5</v>
+        <v>24.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.3</v>
+        <v>-44.6</v>
       </c>
       <c r="C15" t="n">
-        <v>1518</v>
+        <v>8407</v>
       </c>
       <c r="D15" t="n">
-        <v>15569</v>
+        <v>36500</v>
       </c>
       <c r="E15" t="n">
-        <v>77.7</v>
+        <v>-2.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.4</v>
+        <v>-24.6</v>
       </c>
       <c r="C16" t="n">
-        <v>7886</v>
+        <v>7478</v>
       </c>
       <c r="D16" t="n">
-        <v>15195</v>
+        <v>43985</v>
       </c>
       <c r="E16" t="n">
-        <v>36.1</v>
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7485</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>12774</v>
+        <v>4573</v>
       </c>
       <c r="D17" t="n">
-        <v>27969</v>
+        <v>48445</v>
       </c>
       <c r="E17" t="n">
-        <v>24.3</v>
+        <v>-10.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4460</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-44.6</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>8407</v>
+        <v>6125</v>
       </c>
       <c r="D18" t="n">
-        <v>36500</v>
+        <v>54601</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.9</v>
+        <v>-4.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-24.6</v>
+        <v>23.5</v>
       </c>
       <c r="C19" t="n">
-        <v>7478</v>
+        <v>6848</v>
       </c>
       <c r="D19" t="n">
-        <v>43985</v>
+        <v>61449</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.300000000000001</v>
+        <v>-2.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1</v>
+        <v>-3.6</v>
       </c>
       <c r="C20" t="n">
-        <v>4573</v>
+        <v>7907</v>
       </c>
       <c r="D20" t="n">
-        <v>48445</v>
+        <v>69356</v>
       </c>
       <c r="E20" t="n">
-        <v>-10.4</v>
+        <v>-7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7907</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42</v>
+        <v>51.4</v>
       </c>
       <c r="C21" t="n">
-        <v>6125</v>
+        <v>5087</v>
       </c>
       <c r="D21" t="n">
-        <v>54601</v>
+        <v>74443</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5087</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.5</v>
+        <v>31.4</v>
       </c>
       <c r="C22" t="n">
-        <v>6848</v>
+        <v>4197</v>
       </c>
       <c r="D22" t="n">
-        <v>61449</v>
+        <v>78640</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.3</v>
+        <v>-3.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3.6</v>
+        <v>61.3</v>
       </c>
       <c r="C23" t="n">
-        <v>7907</v>
+        <v>1518</v>
       </c>
       <c r="D23" t="n">
-        <v>69356</v>
+        <v>15569</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.4</v>
+        <v>77.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-6</v>
+        <v>24.4</v>
       </c>
       <c r="C24" t="n">
-        <v>1716</v>
+        <v>3251</v>
       </c>
       <c r="D24" t="n">
-        <v>34601</v>
+        <v>6345</v>
       </c>
       <c r="E24" t="n">
-        <v>27.3</v>
+        <v>11.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.1</v>
+        <v>37.7</v>
       </c>
       <c r="C25" t="n">
-        <v>1244</v>
+        <v>4284</v>
       </c>
       <c r="D25" t="n">
-        <v>35845</v>
+        <v>9706</v>
       </c>
       <c r="E25" t="n">
-        <v>27.6</v>
+        <v>10.1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3361</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-20.9</v>
+        <v>49.3</v>
       </c>
       <c r="C26" t="n">
-        <v>1668</v>
+        <v>4299</v>
       </c>
       <c r="D26" t="n">
-        <v>37513</v>
+        <v>13973</v>
       </c>
       <c r="E26" t="n">
-        <v>24.2</v>
+        <v>19.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24.4</v>
+        <v>40.7</v>
       </c>
       <c r="C27" t="n">
-        <v>3251</v>
+        <v>3435</v>
       </c>
       <c r="D27" t="n">
-        <v>6345</v>
+        <v>17512</v>
       </c>
       <c r="E27" t="n">
-        <v>11.2</v>
+        <v>24.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3539</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.7</v>
+        <v>-14.7</v>
       </c>
       <c r="C28" t="n">
-        <v>4284</v>
+        <v>1632</v>
       </c>
       <c r="D28" t="n">
-        <v>9706</v>
+        <v>19144</v>
       </c>
       <c r="E28" t="n">
-        <v>10.1</v>
+        <v>19.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1632</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.3</v>
+        <v>16.1</v>
       </c>
       <c r="C29" t="n">
-        <v>4299</v>
+        <v>2933</v>
       </c>
       <c r="D29" t="n">
-        <v>13973</v>
+        <v>23077</v>
       </c>
       <c r="E29" t="n">
-        <v>19.5</v>
+        <v>24.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3933</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40.7</v>
+        <v>49.4</v>
       </c>
       <c r="C30" t="n">
-        <v>3435</v>
+        <v>4824</v>
       </c>
       <c r="D30" t="n">
-        <v>17512</v>
+        <v>28436</v>
       </c>
       <c r="E30" t="n">
-        <v>24.7</v>
+        <v>30.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-14.7</v>
+        <v>24.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1632</v>
+        <v>4449</v>
       </c>
       <c r="D31" t="n">
-        <v>19144</v>
+        <v>32885</v>
       </c>
       <c r="E31" t="n">
-        <v>19.4</v>
+        <v>29.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4449</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.1</v>
+        <v>-6</v>
       </c>
       <c r="C32" t="n">
-        <v>2933</v>
+        <v>1716</v>
       </c>
       <c r="D32" t="n">
-        <v>23077</v>
+        <v>34601</v>
       </c>
       <c r="E32" t="n">
-        <v>24.3</v>
+        <v>27.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1716</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.4</v>
+        <v>38.1</v>
       </c>
       <c r="C33" t="n">
-        <v>4824</v>
+        <v>1244</v>
       </c>
       <c r="D33" t="n">
-        <v>28436</v>
+        <v>35845</v>
       </c>
       <c r="E33" t="n">
-        <v>30.5</v>
+        <v>27.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.5</v>
+        <v>-20.9</v>
       </c>
       <c r="C34" t="n">
-        <v>4449</v>
+        <v>1668</v>
       </c>
       <c r="D34" t="n">
-        <v>32885</v>
+        <v>37513</v>
       </c>
       <c r="E34" t="n">
-        <v>29.7</v>
+        <v>24.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>115.8</v>
+        <v>46.1</v>
       </c>
       <c r="C35" t="n">
-        <v>3703</v>
+        <v>5436</v>
       </c>
       <c r="D35" t="n">
-        <v>56610</v>
+        <v>9479</v>
       </c>
       <c r="E35" t="n">
-        <v>55.1</v>
+        <v>32.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9479</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5</v>
+        <v>28</v>
       </c>
       <c r="C36" t="n">
-        <v>3244</v>
+        <v>6662</v>
       </c>
       <c r="D36" t="n">
-        <v>53779</v>
+        <v>16141</v>
       </c>
       <c r="E36" t="n">
-        <v>42.9</v>
+        <v>35.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6662</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.5</v>
+        <v>27.9</v>
       </c>
       <c r="C37" t="n">
-        <v>2225</v>
+        <v>6204</v>
       </c>
       <c r="D37" t="n">
-        <v>56004</v>
+        <v>20792</v>
       </c>
       <c r="E37" t="n">
-        <v>42.4</v>
+        <v>28.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4651</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.1</v>
+        <v>43</v>
       </c>
       <c r="C38" t="n">
-        <v>5436</v>
+        <v>6055</v>
       </c>
       <c r="D38" t="n">
-        <v>9479</v>
+        <v>23897</v>
       </c>
       <c r="E38" t="n">
-        <v>32.3</v>
+        <v>33.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>6662</v>
+        <v>4847</v>
       </c>
       <c r="D39" t="n">
-        <v>16141</v>
+        <v>28743</v>
       </c>
       <c r="E39" t="n">
-        <v>35.6</v>
+        <v>37.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4846</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.9</v>
+        <v>6.1</v>
       </c>
       <c r="C40" t="n">
-        <v>6204</v>
+        <v>4173</v>
       </c>
       <c r="D40" t="n">
-        <v>20792</v>
+        <v>32916</v>
       </c>
       <c r="E40" t="n">
-        <v>28.5</v>
+        <v>32.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4173</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>59.4</v>
       </c>
       <c r="C41" t="n">
-        <v>6055</v>
+        <v>7689</v>
       </c>
       <c r="D41" t="n">
-        <v>23897</v>
+        <v>44845</v>
       </c>
       <c r="E41" t="n">
-        <v>33.9</v>
+        <v>48.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11929</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="C42" t="n">
-        <v>4847</v>
+        <v>8062</v>
       </c>
       <c r="D42" t="n">
-        <v>28743</v>
+        <v>52907</v>
       </c>
       <c r="E42" t="n">
-        <v>37.3</v>
+        <v>52.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8062</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.1</v>
+        <v>115.8</v>
       </c>
       <c r="C43" t="n">
-        <v>4173</v>
+        <v>3703</v>
       </c>
       <c r="D43" t="n">
-        <v>32916</v>
+        <v>56610</v>
       </c>
       <c r="E43" t="n">
-        <v>32.4</v>
+        <v>55.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3703</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>59.4</v>
+        <v>178.5</v>
       </c>
       <c r="C44" t="n">
-        <v>7689</v>
+        <v>3244</v>
       </c>
       <c r="D44" t="n">
-        <v>44845</v>
+        <v>53779</v>
       </c>
       <c r="E44" t="n">
-        <v>48.4</v>
+        <v>42.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>53779</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.2</v>
+        <v>31.5</v>
       </c>
       <c r="C45" t="n">
-        <v>8062</v>
+        <v>2225</v>
       </c>
       <c r="D45" t="n">
-        <v>52907</v>
+        <v>56004</v>
       </c>
       <c r="E45" t="n">
-        <v>52.1</v>
+        <v>42.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2225</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3495</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>55091</v>
+        <v>7118</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.7</v>
+        <v>-24.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-7.4</v>
+        <v>-4.3</v>
       </c>
       <c r="C47" t="n">
-        <v>3843</v>
+        <v>5392</v>
       </c>
       <c r="D47" t="n">
-        <v>59834</v>
+        <v>11076</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.2</v>
+        <v>-21</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3958</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.5</v>
+        <v>34.5</v>
       </c>
       <c r="C48" t="n">
-        <v>3410</v>
+        <v>8119</v>
       </c>
       <c r="D48" t="n">
-        <v>63255</v>
+        <v>19192</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.7</v>
+        <v>-5.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8116</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8177</v>
+      </c>
       <c r="D49" t="n">
-        <v>7118</v>
+        <v>26469</v>
       </c>
       <c r="E49" t="n">
-        <v>-24.9</v>
+        <v>-1.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-4.3</v>
+        <v>17.9</v>
       </c>
       <c r="C50" t="n">
-        <v>5392</v>
+        <v>6664</v>
       </c>
       <c r="D50" t="n">
-        <v>11076</v>
+        <v>33133</v>
       </c>
       <c r="E50" t="n">
-        <v>-21</v>
+        <v>1.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6664</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>34.5</v>
+        <v>19.8</v>
       </c>
       <c r="C51" t="n">
-        <v>8119</v>
+        <v>5834</v>
       </c>
       <c r="D51" t="n">
-        <v>19192</v>
+        <v>38967</v>
       </c>
       <c r="E51" t="n">
-        <v>-5.8</v>
+        <v>3.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5834</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>23.8</v>
+        <v>-14.5</v>
       </c>
       <c r="C52" t="n">
-        <v>8177</v>
+        <v>6986</v>
       </c>
       <c r="D52" t="n">
-        <v>26469</v>
+        <v>45952</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.9</v>
+        <v>-8.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17.9</v>
+        <v>-34</v>
       </c>
       <c r="C53" t="n">
-        <v>6664</v>
+        <v>5644</v>
       </c>
       <c r="D53" t="n">
-        <v>33133</v>
+        <v>51597</v>
       </c>
       <c r="E53" t="n">
-        <v>1.5</v>
+        <v>-12.1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5645</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>19.8</v>
+        <v>-20.6</v>
       </c>
       <c r="C54" t="n">
-        <v>5834</v>
+        <v>3495</v>
       </c>
       <c r="D54" t="n">
-        <v>38967</v>
+        <v>55091</v>
       </c>
       <c r="E54" t="n">
-        <v>3.7</v>
+        <v>-12.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3494</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-14.5</v>
+        <v>-7.4</v>
       </c>
       <c r="C55" t="n">
-        <v>6986</v>
+        <v>3843</v>
       </c>
       <c r="D55" t="n">
-        <v>45952</v>
+        <v>59834</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.1</v>
+        <v>-2.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4743</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-34</v>
+        <v>7.5</v>
       </c>
       <c r="C56" t="n">
-        <v>5644</v>
+        <v>3410</v>
       </c>
       <c r="D56" t="n">
-        <v>51597</v>
+        <v>63255</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.1</v>
+        <v>-1.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3421</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4154</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>56529</v>
+        <v>7617</v>
       </c>
       <c r="E57" t="n">
-        <v>-1</v>
+        <v>11.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7617</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>28.4</v>
+        <v>6.8</v>
       </c>
       <c r="C58" t="n">
-        <v>5112</v>
+        <v>5852</v>
       </c>
       <c r="D58" t="n">
-        <v>66377</v>
+        <v>13469</v>
       </c>
       <c r="E58" t="n">
-        <v>7.1</v>
+        <v>14.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5852</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1.1</v>
+        <v>-27.4</v>
       </c>
       <c r="C59" t="n">
-        <v>3499</v>
+        <v>5901</v>
       </c>
       <c r="D59" t="n">
-        <v>69876</v>
+        <v>19368</v>
       </c>
       <c r="E59" t="n">
-        <v>6.6</v>
+        <v>-1.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5899</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6146</v>
+      </c>
       <c r="D60" t="n">
-        <v>7617</v>
+        <v>25811</v>
       </c>
       <c r="E60" t="n">
-        <v>11.9</v>
+        <v>-4.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6443</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.8</v>
+        <v>-13.7</v>
       </c>
       <c r="C61" t="n">
-        <v>5852</v>
+        <v>5937</v>
       </c>
       <c r="D61" t="n">
-        <v>13469</v>
+        <v>32017</v>
       </c>
       <c r="E61" t="n">
-        <v>14.5</v>
+        <v>-7.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6206</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-27.4</v>
+        <v>-7.9</v>
       </c>
       <c r="C62" t="n">
-        <v>5901</v>
+        <v>5881</v>
       </c>
       <c r="D62" t="n">
-        <v>19368</v>
+        <v>37883</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.9</v>
+        <v>-7.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5866</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-24.3</v>
+        <v>10.6</v>
       </c>
       <c r="C63" t="n">
-        <v>6146</v>
+        <v>7800</v>
       </c>
       <c r="D63" t="n">
-        <v>25811</v>
+        <v>45683</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.7</v>
+        <v>-4.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-13.7</v>
+        <v>15.5</v>
       </c>
       <c r="C64" t="n">
-        <v>5937</v>
+        <v>6692</v>
       </c>
       <c r="D64" t="n">
-        <v>32017</v>
+        <v>52375</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.3</v>
+        <v>-4.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6692</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-7.9</v>
+        <v>20.4</v>
       </c>
       <c r="C65" t="n">
-        <v>5881</v>
+        <v>4154</v>
       </c>
       <c r="D65" t="n">
-        <v>37883</v>
+        <v>56529</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.5</v>
+        <v>-1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10.6</v>
+        <v>28.4</v>
       </c>
       <c r="C66" t="n">
-        <v>7800</v>
+        <v>5112</v>
       </c>
       <c r="D66" t="n">
-        <v>45683</v>
+        <v>66377</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.8</v>
+        <v>7.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9848</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>15.5</v>
+        <v>-1.1</v>
       </c>
       <c r="C67" t="n">
-        <v>6692</v>
+        <v>3499</v>
       </c>
       <c r="D67" t="n">
-        <v>52375</v>
+        <v>69876</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.6</v>
+        <v>6.6</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3499</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-13.7</v>
+        <v>0.2</v>
       </c>
       <c r="C68" t="n">
-        <v>4025</v>
+        <v>3937</v>
       </c>
       <c r="D68" t="n">
-        <v>76033</v>
+        <v>8651</v>
       </c>
       <c r="E68" t="n">
-        <v>32.3</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8651</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-13.5</v>
+        <v>42.3</v>
       </c>
       <c r="C69" t="n">
-        <v>2798</v>
+        <v>8777</v>
       </c>
       <c r="D69" t="n">
-        <v>73224</v>
+        <v>17445</v>
       </c>
       <c r="E69" t="n">
-        <v>32.7</v>
+        <v>22.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8794</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>37.9</v>
+        <v>67.3</v>
       </c>
       <c r="C70" t="n">
-        <v>4148</v>
+        <v>9518</v>
       </c>
       <c r="D70" t="n">
-        <v>77372</v>
+        <v>26963</v>
       </c>
       <c r="E70" t="n">
-        <v>33</v>
+        <v>35.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9518</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2</v>
+        <v>34.9</v>
       </c>
       <c r="C71" t="n">
-        <v>3937</v>
+        <v>9014</v>
       </c>
       <c r="D71" t="n">
-        <v>8651</v>
+        <v>35977</v>
       </c>
       <c r="E71" t="n">
-        <v>8.699999999999999</v>
+        <v>29.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9014</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>42.3</v>
+        <v>17.7</v>
       </c>
       <c r="C72" t="n">
-        <v>8777</v>
+        <v>7235</v>
       </c>
       <c r="D72" t="n">
-        <v>17445</v>
+        <v>43045</v>
       </c>
       <c r="E72" t="n">
-        <v>22.5</v>
+        <v>36.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7068</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>67.3</v>
+        <v>50</v>
       </c>
       <c r="C73" t="n">
-        <v>9518</v>
+        <v>9396</v>
       </c>
       <c r="D73" t="n">
-        <v>26963</v>
+        <v>51543</v>
       </c>
       <c r="E73" t="n">
-        <v>35.3</v>
+        <v>37.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8498</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>34.9</v>
+        <v>37.5</v>
       </c>
       <c r="C74" t="n">
-        <v>9014</v>
+        <v>10625</v>
       </c>
       <c r="D74" t="n">
-        <v>35977</v>
+        <v>62168</v>
       </c>
       <c r="E74" t="n">
-        <v>29.6</v>
+        <v>37.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10625</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17.7</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>7235</v>
+        <v>8748</v>
       </c>
       <c r="D75" t="n">
-        <v>43045</v>
+        <v>70915</v>
       </c>
       <c r="E75" t="n">
-        <v>36.7</v>
+        <v>34.3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8747</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50</v>
+        <v>-13.7</v>
       </c>
       <c r="C76" t="n">
-        <v>9396</v>
+        <v>4025</v>
       </c>
       <c r="D76" t="n">
-        <v>51543</v>
+        <v>76033</v>
       </c>
       <c r="E76" t="n">
-        <v>37.3</v>
+        <v>32.3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>37.5</v>
+        <v>-13.5</v>
       </c>
       <c r="C77" t="n">
-        <v>10625</v>
+        <v>2798</v>
       </c>
       <c r="D77" t="n">
-        <v>62168</v>
+        <v>73224</v>
       </c>
       <c r="E77" t="n">
-        <v>37.3</v>
+        <v>32.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>73224</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>37.9</v>
       </c>
       <c r="C78" t="n">
-        <v>8748</v>
+        <v>4148</v>
       </c>
       <c r="D78" t="n">
-        <v>70915</v>
+        <v>77372</v>
       </c>
       <c r="E78" t="n">
-        <v>34.3</v>
+        <v>33</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4148</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-33.7</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2980</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>57131</v>
+        <v>9476</v>
       </c>
       <c r="E79" t="n">
-        <v>-19.1</v>
+        <v>21.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9476</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-9.9</v>
+        <v>-3.8</v>
       </c>
       <c r="C80" t="n">
-        <v>2602</v>
+        <v>7916</v>
       </c>
       <c r="D80" t="n">
-        <v>59733</v>
+        <v>17396</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.8</v>
+        <v>8.4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7920</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-21.8</v>
+        <v>-15</v>
       </c>
       <c r="C81" t="n">
-        <v>3246</v>
+        <v>7478</v>
       </c>
       <c r="D81" t="n">
-        <v>62979</v>
+        <v>25095</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.9</v>
+        <v>2.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7699</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-45.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4433</v>
+      </c>
       <c r="D82" t="n">
-        <v>9476</v>
+        <v>29528</v>
       </c>
       <c r="E82" t="n">
-        <v>21.5</v>
+        <v>-9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4433</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-3.8</v>
+        <v>-40.6</v>
       </c>
       <c r="C83" t="n">
-        <v>7916</v>
+        <v>3977</v>
       </c>
       <c r="D83" t="n">
-        <v>17396</v>
+        <v>33505</v>
       </c>
       <c r="E83" t="n">
-        <v>8.4</v>
+        <v>-15.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3977</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-15</v>
+        <v>-35.8</v>
       </c>
       <c r="C84" t="n">
-        <v>7478</v>
+        <v>5969</v>
       </c>
       <c r="D84" t="n">
-        <v>25095</v>
+        <v>39499</v>
       </c>
       <c r="E84" t="n">
-        <v>2.1</v>
+        <v>-17.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5994</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-45.1</v>
+        <v>-26.1</v>
       </c>
       <c r="C85" t="n">
-        <v>4433</v>
+        <v>7416</v>
       </c>
       <c r="D85" t="n">
-        <v>29528</v>
+        <v>46915</v>
       </c>
       <c r="E85" t="n">
-        <v>-9</v>
+        <v>-19</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7416</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-40.6</v>
+        <v>-12.3</v>
       </c>
       <c r="C86" t="n">
-        <v>3977</v>
+        <v>7236</v>
       </c>
       <c r="D86" t="n">
-        <v>33505</v>
+        <v>54151</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.1</v>
+        <v>-18.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7236</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-35.8</v>
+        <v>-33.7</v>
       </c>
       <c r="C87" t="n">
-        <v>5969</v>
+        <v>2980</v>
       </c>
       <c r="D87" t="n">
-        <v>39499</v>
+        <v>57131</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.5</v>
+        <v>-19.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2980</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-26.1</v>
+        <v>-9.9</v>
       </c>
       <c r="C88" t="n">
-        <v>7416</v>
+        <v>2602</v>
       </c>
       <c r="D88" t="n">
-        <v>46915</v>
+        <v>59733</v>
       </c>
       <c r="E88" t="n">
-        <v>-19</v>
+        <v>-18.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2602</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-12.3</v>
+        <v>-21.8</v>
       </c>
       <c r="C89" t="n">
-        <v>7236</v>
+        <v>3246</v>
       </c>
       <c r="D89" t="n">
-        <v>54151</v>
+        <v>62979</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.1</v>
+        <v>-18.9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3246</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>-15.4</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2521</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>43421</v>
+        <v>9189</v>
       </c>
       <c r="E90" t="n">
-        <v>-24</v>
+        <v>-4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-2.3</v>
+        <v>3.7</v>
       </c>
       <c r="C91" t="n">
-        <v>2542</v>
+        <v>8286</v>
       </c>
       <c r="D91" t="n">
-        <v>45963</v>
+        <v>17475</v>
       </c>
       <c r="E91" t="n">
-        <v>-23</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8286</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>56.8</v>
+        <v>-49.7</v>
       </c>
       <c r="C92" t="n">
-        <v>5089</v>
+        <v>3780</v>
       </c>
       <c r="D92" t="n">
-        <v>51052</v>
+        <v>21255</v>
       </c>
       <c r="E92" t="n">
-        <v>-18.9</v>
+        <v>-15.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3780</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2795</v>
+      </c>
       <c r="D93" t="n">
-        <v>9189</v>
+        <v>24186</v>
       </c>
       <c r="E93" t="n">
-        <v>-4</v>
+        <v>-18.3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2931</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.7</v>
+        <v>-30.8</v>
       </c>
       <c r="C94" t="n">
-        <v>8286</v>
+        <v>2759</v>
       </c>
       <c r="D94" t="n">
-        <v>17475</v>
+        <v>26945</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5</v>
+        <v>-19.7</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2759</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-49.7</v>
+        <v>-41</v>
       </c>
       <c r="C95" t="n">
-        <v>3780</v>
+        <v>3528</v>
       </c>
       <c r="D95" t="n">
-        <v>21255</v>
+        <v>30472</v>
       </c>
       <c r="E95" t="n">
-        <v>-15.5</v>
+        <v>-23</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3527</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.1</v>
+        <v>-18.3</v>
       </c>
       <c r="C96" t="n">
-        <v>2795</v>
+        <v>6071</v>
       </c>
       <c r="D96" t="n">
-        <v>24186</v>
+        <v>36543</v>
       </c>
       <c r="E96" t="n">
-        <v>-18.3</v>
+        <v>-22.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6071</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-30.8</v>
+        <v>-45.3</v>
       </c>
       <c r="C97" t="n">
-        <v>2759</v>
+        <v>3965</v>
       </c>
       <c r="D97" t="n">
-        <v>26945</v>
+        <v>40905</v>
       </c>
       <c r="E97" t="n">
-        <v>-19.7</v>
+        <v>-24.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4362</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-41</v>
+        <v>-15.4</v>
       </c>
       <c r="C98" t="n">
-        <v>3528</v>
+        <v>2521</v>
       </c>
       <c r="D98" t="n">
-        <v>30472</v>
+        <v>43421</v>
       </c>
       <c r="E98" t="n">
-        <v>-23</v>
+        <v>-24</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2516</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-18.3</v>
+        <v>-2.3</v>
       </c>
       <c r="C99" t="n">
-        <v>6071</v>
+        <v>2542</v>
       </c>
       <c r="D99" t="n">
-        <v>36543</v>
+        <v>45963</v>
       </c>
       <c r="E99" t="n">
-        <v>-22.2</v>
+        <v>-23</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2542</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-45.3</v>
+        <v>56.8</v>
       </c>
       <c r="C100" t="n">
-        <v>3965</v>
+        <v>5089</v>
       </c>
       <c r="D100" t="n">
-        <v>40905</v>
+        <v>51052</v>
       </c>
       <c r="E100" t="n">
-        <v>-24.6</v>
+        <v>-18.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5089</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>-18.1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2151</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>33318</v>
+        <v>8882</v>
       </c>
       <c r="E101" t="n">
-        <v>-27.1</v>
+        <v>-7.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8882</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-30.5</v>
+        <v>-17.5</v>
       </c>
       <c r="C102" t="n">
-        <v>1888</v>
+        <v>7014</v>
       </c>
       <c r="D102" t="n">
-        <v>35199</v>
+        <v>16028</v>
       </c>
       <c r="E102" t="n">
-        <v>-27.3</v>
+        <v>-11.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-45.2</v>
+        <v>-20</v>
       </c>
       <c r="C103" t="n">
-        <v>2958</v>
+        <v>3175</v>
       </c>
       <c r="D103" t="n">
-        <v>40147</v>
+        <v>18407</v>
       </c>
       <c r="E103" t="n">
-        <v>-27.1</v>
+        <v>-16.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2379</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-35</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1959</v>
+      </c>
       <c r="D104" t="n">
-        <v>8882</v>
+        <v>20301</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.1</v>
+        <v>-19.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1894</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-17.5</v>
+        <v>-31.2</v>
       </c>
       <c r="C105" t="n">
-        <v>7014</v>
+        <v>1733</v>
       </c>
       <c r="D105" t="n">
-        <v>16028</v>
+        <v>22081</v>
       </c>
       <c r="E105" t="n">
-        <v>-11.4</v>
+        <v>-20.4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1780</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="C106" t="n">
-        <v>3175</v>
+        <v>3098</v>
       </c>
       <c r="D106" t="n">
-        <v>18407</v>
+        <v>25179</v>
       </c>
       <c r="E106" t="n">
-        <v>-16.6</v>
+        <v>-21.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3098</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-35</v>
+        <v>-43.9</v>
       </c>
       <c r="C107" t="n">
-        <v>1959</v>
+        <v>4106</v>
       </c>
       <c r="D107" t="n">
-        <v>20301</v>
+        <v>29222</v>
       </c>
       <c r="E107" t="n">
-        <v>-19.5</v>
+        <v>-25.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4043</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-31.2</v>
+        <v>-37.8</v>
       </c>
       <c r="C108" t="n">
-        <v>1733</v>
+        <v>2682</v>
       </c>
       <c r="D108" t="n">
-        <v>22081</v>
+        <v>31704</v>
       </c>
       <c r="E108" t="n">
-        <v>-20.4</v>
+        <v>-26.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2482</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-28</v>
+        <v>-18.1</v>
       </c>
       <c r="C109" t="n">
-        <v>3098</v>
+        <v>2151</v>
       </c>
       <c r="D109" t="n">
-        <v>25179</v>
+        <v>33318</v>
       </c>
       <c r="E109" t="n">
-        <v>-21.4</v>
+        <v>-27.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1614</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-43.9</v>
+        <v>-30.5</v>
       </c>
       <c r="C110" t="n">
-        <v>4106</v>
+        <v>1888</v>
       </c>
       <c r="D110" t="n">
-        <v>29222</v>
+        <v>35199</v>
       </c>
       <c r="E110" t="n">
-        <v>-25.8</v>
+        <v>-27.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1881</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.8</v>
+        <v>-45.2</v>
       </c>
       <c r="C111" t="n">
-        <v>2682</v>
+        <v>2958</v>
       </c>
       <c r="D111" t="n">
-        <v>31704</v>
+        <v>40147</v>
       </c>
       <c r="E111" t="n">
-        <v>-26.4</v>
+        <v>-27.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4948</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2562</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>31970</v>
+        <v>6209</v>
       </c>
       <c r="E112" t="n">
-        <v>-9.800000000000001</v>
+        <v>-29.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6209</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>105.6</v>
+        <v>-18.3</v>
       </c>
       <c r="C113" t="n">
-        <v>4110</v>
+        <v>4970</v>
       </c>
       <c r="D113" t="n">
-        <v>36101</v>
+        <v>11177</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.9</v>
+        <v>-24.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4968</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25.2</v>
+        <v>23.5</v>
       </c>
       <c r="C114" t="n">
-        <v>3956</v>
+        <v>3787</v>
       </c>
       <c r="D114" t="n">
-        <v>40020</v>
+        <v>14879</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.1</v>
+        <v>-17.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3702</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2578</v>
+      </c>
       <c r="D115" t="n">
-        <v>6209</v>
+        <v>18411</v>
       </c>
       <c r="E115" t="n">
-        <v>-29.6</v>
+        <v>-10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3532</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-18.3</v>
+        <v>1.9</v>
       </c>
       <c r="C116" t="n">
-        <v>4970</v>
+        <v>1694</v>
       </c>
       <c r="D116" t="n">
-        <v>11177</v>
+        <v>20105</v>
       </c>
       <c r="E116" t="n">
-        <v>-24.9</v>
+        <v>-9.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1694</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>23.5</v>
+        <v>-17.9</v>
       </c>
       <c r="C117" t="n">
-        <v>3787</v>
+        <v>2664</v>
       </c>
       <c r="D117" t="n">
-        <v>14879</v>
+        <v>21691</v>
       </c>
       <c r="E117" t="n">
-        <v>-17.1</v>
+        <v>-15.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1586</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>27.1</v>
+        <v>-7.6</v>
       </c>
       <c r="C118" t="n">
-        <v>2578</v>
+        <v>3868</v>
       </c>
       <c r="D118" t="n">
-        <v>18411</v>
+        <v>24522</v>
       </c>
       <c r="E118" t="n">
-        <v>-10</v>
+        <v>-16.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2831</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.9</v>
+        <v>42</v>
       </c>
       <c r="C119" t="n">
-        <v>1694</v>
+        <v>4218</v>
       </c>
       <c r="D119" t="n">
-        <v>20105</v>
+        <v>29407</v>
       </c>
       <c r="E119" t="n">
-        <v>-9.4</v>
+        <v>-11.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4885</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-17.9</v>
+        <v>8.6</v>
       </c>
       <c r="C120" t="n">
-        <v>2664</v>
+        <v>2562</v>
       </c>
       <c r="D120" t="n">
-        <v>21691</v>
+        <v>31970</v>
       </c>
       <c r="E120" t="n">
-        <v>-15.6</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2563</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-7.6</v>
+        <v>105.6</v>
       </c>
       <c r="C121" t="n">
-        <v>3868</v>
+        <v>4110</v>
       </c>
       <c r="D121" t="n">
-        <v>24522</v>
+        <v>36101</v>
       </c>
       <c r="E121" t="n">
-        <v>-16.8</v>
+        <v>-3.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4131</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>42</v>
+        <v>25.2</v>
       </c>
       <c r="C122" t="n">
-        <v>4218</v>
+        <v>3956</v>
       </c>
       <c r="D122" t="n">
-        <v>29407</v>
+        <v>40020</v>
       </c>
       <c r="E122" t="n">
-        <v>-11.1</v>
+        <v>-1.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3919</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>158.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7498</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>54941</v>
+        <v>4846</v>
       </c>
       <c r="E123" t="n">
-        <v>58.7</v>
+        <v>-26.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4846</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>55.8</v>
+        <v>36.6</v>
       </c>
       <c r="C124" t="n">
-        <v>7006</v>
+        <v>6947</v>
       </c>
       <c r="D124" t="n">
-        <v>61949</v>
+        <v>11714</v>
       </c>
       <c r="E124" t="n">
-        <v>54.1</v>
+        <v>0.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6868</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>78</v>
+        <v>55.3</v>
       </c>
       <c r="C125" t="n">
-        <v>8218</v>
+        <v>7980</v>
       </c>
       <c r="D125" t="n">
-        <v>70432</v>
+        <v>19679</v>
       </c>
       <c r="E125" t="n">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7965</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5300</v>
+      </c>
       <c r="D126" t="n">
-        <v>4846</v>
+        <v>24979</v>
       </c>
       <c r="E126" t="n">
-        <v>-26.6</v>
+        <v>27</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5300</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>36.6</v>
+        <v>136.3</v>
       </c>
       <c r="C127" t="n">
-        <v>6947</v>
+        <v>4415</v>
       </c>
       <c r="D127" t="n">
-        <v>11714</v>
+        <v>29394</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4</v>
+        <v>33.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4415</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>55.3</v>
+        <v>96.8</v>
       </c>
       <c r="C128" t="n">
-        <v>7980</v>
+        <v>5555</v>
       </c>
       <c r="D128" t="n">
-        <v>19679</v>
+        <v>34784</v>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5390</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>95.5</v>
+        <v>60.7</v>
       </c>
       <c r="C129" t="n">
-        <v>5300</v>
+        <v>6579</v>
       </c>
       <c r="D129" t="n">
-        <v>24979</v>
+        <v>39449</v>
       </c>
       <c r="E129" t="n">
-        <v>27</v>
+        <v>47.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4665</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>136.3</v>
+        <v>81.5</v>
       </c>
       <c r="C130" t="n">
-        <v>4415</v>
+        <v>8023</v>
       </c>
       <c r="D130" t="n">
-        <v>29394</v>
+        <v>47469</v>
       </c>
       <c r="E130" t="n">
-        <v>33.5</v>
+        <v>55</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8020</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>96.8</v>
+        <v>158.3</v>
       </c>
       <c r="C131" t="n">
-        <v>5555</v>
+        <v>7498</v>
       </c>
       <c r="D131" t="n">
-        <v>34784</v>
+        <v>54941</v>
       </c>
       <c r="E131" t="n">
-        <v>47</v>
+        <v>58.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7472</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>60.7</v>
+        <v>55.8</v>
       </c>
       <c r="C132" t="n">
-        <v>6579</v>
+        <v>7006</v>
       </c>
       <c r="D132" t="n">
-        <v>39449</v>
+        <v>61949</v>
       </c>
       <c r="E132" t="n">
-        <v>47.6</v>
+        <v>54.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7008</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>81.5</v>
+        <v>78</v>
       </c>
       <c r="C133" t="n">
-        <v>8023</v>
+        <v>8218</v>
       </c>
       <c r="D133" t="n">
-        <v>47469</v>
+        <v>70432</v>
       </c>
       <c r="E133" t="n">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8483</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-35.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5573</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>80811</v>
+        <v>14657</v>
       </c>
       <c r="E134" t="n">
-        <v>26.3</v>
+        <v>154.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14657</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-14.6</v>
+        <v>74.7</v>
       </c>
       <c r="C135" t="n">
-        <v>7855</v>
+        <v>13508</v>
       </c>
       <c r="D135" t="n">
-        <v>88964</v>
+        <v>28745</v>
       </c>
       <c r="E135" t="n">
-        <v>21.6</v>
+        <v>113.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14088</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1.8</v>
+        <v>15.6</v>
       </c>
       <c r="C136" t="n">
-        <v>9603</v>
+        <v>11395</v>
       </c>
       <c r="D136" t="n">
-        <v>98648</v>
+        <v>39900</v>
       </c>
       <c r="E136" t="n">
-        <v>18.9</v>
+        <v>71.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7313</v>
+      </c>
       <c r="D137" t="n">
-        <v>14657</v>
+        <v>46502</v>
       </c>
       <c r="E137" t="n">
-        <v>154.6</v>
+        <v>60.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6602</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>74.7</v>
+        <v>-5.3</v>
       </c>
       <c r="C138" t="n">
-        <v>13508</v>
+        <v>4501</v>
       </c>
       <c r="D138" t="n">
-        <v>28745</v>
+        <v>51179</v>
       </c>
       <c r="E138" t="n">
-        <v>113.8</v>
+        <v>57.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4677</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>15.6</v>
+        <v>-5.8</v>
       </c>
       <c r="C139" t="n">
-        <v>11395</v>
+        <v>6011</v>
       </c>
       <c r="D139" t="n">
-        <v>39900</v>
+        <v>56969</v>
       </c>
       <c r="E139" t="n">
-        <v>71.7</v>
+        <v>46.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5790</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>7</v>
+        <v>12.6</v>
       </c>
       <c r="C140" t="n">
-        <v>7313</v>
+        <v>7927</v>
       </c>
       <c r="D140" t="n">
-        <v>46502</v>
+        <v>64896</v>
       </c>
       <c r="E140" t="n">
-        <v>60.5</v>
+        <v>43.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7927</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-5.3</v>
+        <v>4.3</v>
       </c>
       <c r="C141" t="n">
-        <v>4501</v>
+        <v>9822</v>
       </c>
       <c r="D141" t="n">
-        <v>51179</v>
+        <v>75192</v>
       </c>
       <c r="E141" t="n">
-        <v>57.4</v>
+        <v>35.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10296</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-5.8</v>
+        <v>-35.8</v>
       </c>
       <c r="C142" t="n">
-        <v>6011</v>
+        <v>5573</v>
       </c>
       <c r="D142" t="n">
-        <v>56969</v>
+        <v>80811</v>
       </c>
       <c r="E142" t="n">
-        <v>46.6</v>
+        <v>26.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5619</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>12.6</v>
+        <v>-14.6</v>
       </c>
       <c r="C143" t="n">
-        <v>7927</v>
+        <v>7855</v>
       </c>
       <c r="D143" t="n">
-        <v>64896</v>
+        <v>88964</v>
       </c>
       <c r="E143" t="n">
-        <v>43.6</v>
+        <v>21.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="C144" t="n">
-        <v>9822</v>
+        <v>9603</v>
       </c>
       <c r="D144" t="n">
-        <v>75192</v>
+        <v>98648</v>
       </c>
       <c r="E144" t="n">
-        <v>35.9</v>
+        <v>18.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9684</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/大型拖拉机.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/大型拖拉机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3124 +454,2777 @@
           <t>大型拖拉机产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>大型拖拉机产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>51.4</v>
       </c>
       <c r="C2" t="n">
-        <v>5917</v>
+        <v>5087</v>
       </c>
       <c r="D2" t="n">
-        <v>9958</v>
+        <v>74443</v>
       </c>
       <c r="E2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9958</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>31.4</v>
       </c>
       <c r="C3" t="n">
-        <v>11534</v>
+        <v>4197</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>78640</v>
       </c>
       <c r="E3" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10042</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.5</v>
+        <v>61.3</v>
       </c>
       <c r="C4" t="n">
-        <v>13928</v>
+        <v>1518</v>
       </c>
       <c r="D4" t="n">
-        <v>33208</v>
+        <v>15569</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13208</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.7</v>
+        <v>9.4</v>
       </c>
       <c r="C5" t="n">
-        <v>8162</v>
+        <v>7886</v>
       </c>
       <c r="D5" t="n">
-        <v>41370</v>
+        <v>15195</v>
       </c>
       <c r="E5" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8162</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C6" t="n">
-        <v>3711</v>
+        <v>12774</v>
       </c>
       <c r="D6" t="n">
-        <v>46186.9</v>
+        <v>27969</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4816.900000000001</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.3</v>
+        <v>-44.6</v>
       </c>
       <c r="C7" t="n">
-        <v>3280.1</v>
+        <v>8407</v>
       </c>
       <c r="D7" t="n">
-        <v>49467</v>
+        <v>36500</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3280.099999999999</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.2</v>
+        <v>-24.6</v>
       </c>
       <c r="C8" t="n">
-        <v>4931</v>
+        <v>7478</v>
       </c>
       <c r="D8" t="n">
-        <v>54398</v>
+        <v>43985</v>
       </c>
       <c r="E8" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4931</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>7839</v>
+        <v>4573</v>
       </c>
       <c r="D9" t="n">
-        <v>66057</v>
+        <v>48445</v>
       </c>
       <c r="E9" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11659</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.6</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>3567</v>
+        <v>6125</v>
       </c>
       <c r="D10" t="n">
-        <v>69624</v>
+        <v>54601</v>
       </c>
       <c r="E10" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3567</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.8</v>
+        <v>23.5</v>
       </c>
       <c r="C11" t="n">
-        <v>3532</v>
+        <v>6848</v>
       </c>
       <c r="D11" t="n">
-        <v>73182</v>
+        <v>61449</v>
       </c>
       <c r="E11" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3558</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.40000000000001</v>
+        <v>-3.6</v>
       </c>
       <c r="C12" t="n">
-        <v>6567</v>
+        <v>7907</v>
       </c>
       <c r="D12" t="n">
-        <v>74718</v>
+        <v>69356</v>
       </c>
       <c r="E12" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1536</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.4</v>
+        <v>-6</v>
       </c>
       <c r="C13" t="n">
-        <v>7886</v>
+        <v>1716</v>
       </c>
       <c r="D13" t="n">
-        <v>15195</v>
+        <v>34601</v>
       </c>
       <c r="E13" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15195</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.6</v>
+        <v>38.1</v>
       </c>
       <c r="C14" t="n">
-        <v>12774</v>
+        <v>1244</v>
       </c>
       <c r="D14" t="n">
-        <v>27969</v>
+        <v>35845</v>
       </c>
       <c r="E14" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12774</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-44.6</v>
+        <v>-20.9</v>
       </c>
       <c r="C15" t="n">
-        <v>8407</v>
+        <v>1668</v>
       </c>
       <c r="D15" t="n">
-        <v>36500</v>
+        <v>37513</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8531</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-24.6</v>
+        <v>24.4</v>
       </c>
       <c r="C16" t="n">
-        <v>7478</v>
+        <v>3251</v>
       </c>
       <c r="D16" t="n">
-        <v>43985</v>
+        <v>6345</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7485</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1</v>
+        <v>37.7</v>
       </c>
       <c r="C17" t="n">
-        <v>4573</v>
+        <v>4284</v>
       </c>
       <c r="D17" t="n">
-        <v>48445</v>
+        <v>9706</v>
       </c>
       <c r="E17" t="n">
-        <v>-10.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4460</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>49.3</v>
       </c>
       <c r="C18" t="n">
-        <v>6125</v>
+        <v>4299</v>
       </c>
       <c r="D18" t="n">
-        <v>54601</v>
+        <v>13973</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6156</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.5</v>
+        <v>40.7</v>
       </c>
       <c r="C19" t="n">
-        <v>6848</v>
+        <v>3435</v>
       </c>
       <c r="D19" t="n">
-        <v>61449</v>
+        <v>17512</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6848</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.6</v>
+        <v>-14.7</v>
       </c>
       <c r="C20" t="n">
-        <v>7907</v>
+        <v>1632</v>
       </c>
       <c r="D20" t="n">
-        <v>69356</v>
+        <v>19144</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7907</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.4</v>
+        <v>16.1</v>
       </c>
       <c r="C21" t="n">
-        <v>5087</v>
+        <v>2933</v>
       </c>
       <c r="D21" t="n">
-        <v>74443</v>
+        <v>23077</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5087</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.4</v>
+        <v>49.4</v>
       </c>
       <c r="C22" t="n">
-        <v>4197</v>
+        <v>4824</v>
       </c>
       <c r="D22" t="n">
-        <v>78640</v>
+        <v>28436</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4197</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.3</v>
+        <v>24.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1518</v>
+        <v>4449</v>
       </c>
       <c r="D23" t="n">
-        <v>15569</v>
+        <v>32885</v>
       </c>
       <c r="E23" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>15569</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.4</v>
+        <v>115.8</v>
       </c>
       <c r="C24" t="n">
-        <v>3251</v>
+        <v>3703</v>
       </c>
       <c r="D24" t="n">
-        <v>6345</v>
+        <v>56610</v>
       </c>
       <c r="E24" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6345</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.7</v>
+        <v>178.5</v>
       </c>
       <c r="C25" t="n">
-        <v>4284</v>
+        <v>3244</v>
       </c>
       <c r="D25" t="n">
-        <v>9706</v>
+        <v>53779</v>
       </c>
       <c r="E25" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3361</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.3</v>
+        <v>31.5</v>
       </c>
       <c r="C26" t="n">
-        <v>4299</v>
+        <v>2225</v>
       </c>
       <c r="D26" t="n">
-        <v>13973</v>
+        <v>56004</v>
       </c>
       <c r="E26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4267</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40.7</v>
+        <v>46.1</v>
       </c>
       <c r="C27" t="n">
-        <v>3435</v>
+        <v>5436</v>
       </c>
       <c r="D27" t="n">
-        <v>17512</v>
+        <v>9479</v>
       </c>
       <c r="E27" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3539</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-14.7</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>1632</v>
+        <v>6662</v>
       </c>
       <c r="D28" t="n">
-        <v>19144</v>
+        <v>16141</v>
       </c>
       <c r="E28" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1632</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.1</v>
+        <v>27.9</v>
       </c>
       <c r="C29" t="n">
-        <v>2933</v>
+        <v>6204</v>
       </c>
       <c r="D29" t="n">
-        <v>23077</v>
+        <v>20792</v>
       </c>
       <c r="E29" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3933</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.4</v>
+        <v>43</v>
       </c>
       <c r="C30" t="n">
-        <v>4824</v>
+        <v>6055</v>
       </c>
       <c r="D30" t="n">
-        <v>28436</v>
+        <v>23897</v>
       </c>
       <c r="E30" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5359</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>4449</v>
+        <v>4847</v>
       </c>
       <c r="D31" t="n">
-        <v>32885</v>
+        <v>28743</v>
       </c>
       <c r="E31" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4449</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6</v>
+        <v>6.1</v>
       </c>
       <c r="C32" t="n">
-        <v>1716</v>
+        <v>4173</v>
       </c>
       <c r="D32" t="n">
-        <v>34601</v>
+        <v>32916</v>
       </c>
       <c r="E32" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1716</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.1</v>
+        <v>59.4</v>
       </c>
       <c r="C33" t="n">
-        <v>1244</v>
+        <v>7689</v>
       </c>
       <c r="D33" t="n">
-        <v>35845</v>
+        <v>44845</v>
       </c>
       <c r="E33" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1244</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-20.9</v>
+        <v>81.2</v>
       </c>
       <c r="C34" t="n">
-        <v>1668</v>
+        <v>8062</v>
       </c>
       <c r="D34" t="n">
-        <v>37513</v>
+        <v>52907</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1668</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.1</v>
+        <v>-20.6</v>
       </c>
       <c r="C35" t="n">
-        <v>5436</v>
+        <v>3495</v>
       </c>
       <c r="D35" t="n">
-        <v>9479</v>
+        <v>55091</v>
       </c>
       <c r="E35" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9479</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>-7.4</v>
       </c>
       <c r="C36" t="n">
-        <v>6662</v>
+        <v>3843</v>
       </c>
       <c r="D36" t="n">
-        <v>16141</v>
+        <v>59834</v>
       </c>
       <c r="E36" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6662</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.9</v>
+        <v>7.5</v>
       </c>
       <c r="C37" t="n">
-        <v>6204</v>
+        <v>3410</v>
       </c>
       <c r="D37" t="n">
-        <v>20792</v>
+        <v>63255</v>
       </c>
       <c r="E37" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4651</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>43</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6055</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>23897</v>
+        <v>7118</v>
       </c>
       <c r="E38" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3105</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.09999999999999</v>
+        <v>-4.3</v>
       </c>
       <c r="C39" t="n">
-        <v>4847</v>
+        <v>5392</v>
       </c>
       <c r="D39" t="n">
-        <v>28743</v>
+        <v>11076</v>
       </c>
       <c r="E39" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4846</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.1</v>
+        <v>34.5</v>
       </c>
       <c r="C40" t="n">
-        <v>4173</v>
+        <v>8119</v>
       </c>
       <c r="D40" t="n">
-        <v>32916</v>
+        <v>19192</v>
       </c>
       <c r="E40" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4173</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>59.4</v>
+        <v>23.8</v>
       </c>
       <c r="C41" t="n">
-        <v>7689</v>
+        <v>8177</v>
       </c>
       <c r="D41" t="n">
-        <v>44845</v>
+        <v>26469</v>
       </c>
       <c r="E41" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11929</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.2</v>
+        <v>17.9</v>
       </c>
       <c r="C42" t="n">
-        <v>8062</v>
+        <v>6664</v>
       </c>
       <c r="D42" t="n">
-        <v>52907</v>
+        <v>33133</v>
       </c>
       <c r="E42" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8062</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.8</v>
+        <v>19.8</v>
       </c>
       <c r="C43" t="n">
-        <v>3703</v>
+        <v>5834</v>
       </c>
       <c r="D43" t="n">
-        <v>56610</v>
+        <v>38967</v>
       </c>
       <c r="E43" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>178.5</v>
+        <v>-14.5</v>
       </c>
       <c r="C44" t="n">
-        <v>3244</v>
+        <v>6986</v>
       </c>
       <c r="D44" t="n">
-        <v>53779</v>
+        <v>45952</v>
       </c>
       <c r="E44" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="F44" t="n">
-        <v>53779</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.5</v>
+        <v>-34</v>
       </c>
       <c r="C45" t="n">
-        <v>2225</v>
+        <v>5644</v>
       </c>
       <c r="D45" t="n">
-        <v>56004</v>
+        <v>51597</v>
       </c>
       <c r="E45" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2225</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4154</v>
+      </c>
       <c r="D46" t="n">
-        <v>7118</v>
+        <v>56529</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>7118</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-4.3</v>
+        <v>28.4</v>
       </c>
       <c r="C47" t="n">
-        <v>5392</v>
+        <v>5112</v>
       </c>
       <c r="D47" t="n">
-        <v>11076</v>
+        <v>66377</v>
       </c>
       <c r="E47" t="n">
-        <v>-21</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3958</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>34.5</v>
+        <v>-1.1</v>
       </c>
       <c r="C48" t="n">
-        <v>8119</v>
+        <v>3499</v>
       </c>
       <c r="D48" t="n">
-        <v>19192</v>
+        <v>69876</v>
       </c>
       <c r="E48" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>8116</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8177</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>26469</v>
+        <v>7617</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7277</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17.9</v>
+        <v>6.8</v>
       </c>
       <c r="C50" t="n">
-        <v>6664</v>
+        <v>5852</v>
       </c>
       <c r="D50" t="n">
-        <v>33133</v>
+        <v>13469</v>
       </c>
       <c r="E50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6664</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>19.8</v>
+        <v>-27.4</v>
       </c>
       <c r="C51" t="n">
-        <v>5834</v>
+        <v>5901</v>
       </c>
       <c r="D51" t="n">
-        <v>38967</v>
+        <v>19368</v>
       </c>
       <c r="E51" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5834</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-14.5</v>
+        <v>-24.3</v>
       </c>
       <c r="C52" t="n">
-        <v>6986</v>
+        <v>6146</v>
       </c>
       <c r="D52" t="n">
-        <v>45952</v>
+        <v>25811</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6985</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-34</v>
+        <v>-13.7</v>
       </c>
       <c r="C53" t="n">
-        <v>5644</v>
+        <v>5937</v>
       </c>
       <c r="D53" t="n">
-        <v>51597</v>
+        <v>32017</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5645</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-20.6</v>
+        <v>-7.9</v>
       </c>
       <c r="C54" t="n">
-        <v>3495</v>
+        <v>5881</v>
       </c>
       <c r="D54" t="n">
-        <v>55091</v>
+        <v>37883</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3494</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-7.4</v>
+        <v>10.6</v>
       </c>
       <c r="C55" t="n">
-        <v>3843</v>
+        <v>7800</v>
       </c>
       <c r="D55" t="n">
-        <v>59834</v>
+        <v>45683</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4743</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="C56" t="n">
-        <v>3410</v>
+        <v>6692</v>
       </c>
       <c r="D56" t="n">
-        <v>63255</v>
+        <v>52375</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3421</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4025</v>
+      </c>
       <c r="D57" t="n">
-        <v>7617</v>
+        <v>76033</v>
       </c>
       <c r="E57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7617</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.8</v>
+        <v>-13.5</v>
       </c>
       <c r="C58" t="n">
-        <v>5852</v>
+        <v>2798</v>
       </c>
       <c r="D58" t="n">
-        <v>13469</v>
+        <v>73224</v>
       </c>
       <c r="E58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5852</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-27.4</v>
+        <v>37.9</v>
       </c>
       <c r="C59" t="n">
-        <v>5901</v>
+        <v>4148</v>
       </c>
       <c r="D59" t="n">
-        <v>19368</v>
+        <v>77372</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5899</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-24.3</v>
+        <v>0.2</v>
       </c>
       <c r="C60" t="n">
-        <v>6146</v>
+        <v>3937</v>
       </c>
       <c r="D60" t="n">
-        <v>25811</v>
+        <v>8651</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6443</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-13.7</v>
+        <v>42.3</v>
       </c>
       <c r="C61" t="n">
-        <v>5937</v>
+        <v>8777</v>
       </c>
       <c r="D61" t="n">
-        <v>32017</v>
+        <v>17445</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>6206</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-7.9</v>
+        <v>67.3</v>
       </c>
       <c r="C62" t="n">
-        <v>5881</v>
+        <v>9518</v>
       </c>
       <c r="D62" t="n">
-        <v>37883</v>
+        <v>26963</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5866</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10.6</v>
+        <v>34.9</v>
       </c>
       <c r="C63" t="n">
-        <v>7800</v>
+        <v>9014</v>
       </c>
       <c r="D63" t="n">
-        <v>45683</v>
+        <v>35977</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7800</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15.5</v>
+        <v>17.7</v>
       </c>
       <c r="C64" t="n">
-        <v>6692</v>
+        <v>7235</v>
       </c>
       <c r="D64" t="n">
-        <v>52375</v>
+        <v>43045</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>6692</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>20.4</v>
+        <v>50</v>
       </c>
       <c r="C65" t="n">
-        <v>4154</v>
+        <v>9396</v>
       </c>
       <c r="D65" t="n">
-        <v>56529</v>
+        <v>51543</v>
       </c>
       <c r="E65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4154</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>28.4</v>
+        <v>37.5</v>
       </c>
       <c r="C66" t="n">
-        <v>5112</v>
+        <v>10625</v>
       </c>
       <c r="D66" t="n">
-        <v>66377</v>
+        <v>62168</v>
       </c>
       <c r="E66" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>9848</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.1</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
-        <v>3499</v>
+        <v>8748</v>
       </c>
       <c r="D67" t="n">
-        <v>69876</v>
+        <v>70915</v>
       </c>
       <c r="E67" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3499</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2</v>
+        <v>-33.7</v>
       </c>
       <c r="C68" t="n">
-        <v>3937</v>
+        <v>2980</v>
       </c>
       <c r="D68" t="n">
-        <v>8651</v>
+        <v>57131</v>
       </c>
       <c r="E68" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8651</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>42.3</v>
+        <v>-9.9</v>
       </c>
       <c r="C69" t="n">
-        <v>8777</v>
+        <v>2602</v>
       </c>
       <c r="D69" t="n">
-        <v>17445</v>
+        <v>59733</v>
       </c>
       <c r="E69" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F69" t="n">
-        <v>8794</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>67.3</v>
+        <v>-21.8</v>
       </c>
       <c r="C70" t="n">
-        <v>9518</v>
+        <v>3246</v>
       </c>
       <c r="D70" t="n">
-        <v>26963</v>
+        <v>62979</v>
       </c>
       <c r="E70" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>9518</v>
+        <v>-18.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C71" t="n">
-        <v>9014</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>35977</v>
+        <v>9476</v>
       </c>
       <c r="E71" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F71" t="n">
-        <v>9014</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>17.7</v>
+        <v>-3.8</v>
       </c>
       <c r="C72" t="n">
-        <v>7235</v>
+        <v>7916</v>
       </c>
       <c r="D72" t="n">
-        <v>43045</v>
+        <v>17396</v>
       </c>
       <c r="E72" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7068</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50</v>
+        <v>-15</v>
       </c>
       <c r="C73" t="n">
-        <v>9396</v>
+        <v>7478</v>
       </c>
       <c r="D73" t="n">
-        <v>51543</v>
+        <v>25095</v>
       </c>
       <c r="E73" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8498</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>37.5</v>
+        <v>-45.1</v>
       </c>
       <c r="C74" t="n">
-        <v>10625</v>
+        <v>4433</v>
       </c>
       <c r="D74" t="n">
-        <v>62168</v>
+        <v>29528</v>
       </c>
       <c r="E74" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F74" t="n">
-        <v>10625</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>16</v>
+        <v>-40.6</v>
       </c>
       <c r="C75" t="n">
-        <v>8748</v>
+        <v>3977</v>
       </c>
       <c r="D75" t="n">
-        <v>70915</v>
+        <v>33505</v>
       </c>
       <c r="E75" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F75" t="n">
-        <v>8747</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-13.7</v>
+        <v>-35.8</v>
       </c>
       <c r="C76" t="n">
-        <v>4025</v>
+        <v>5969</v>
       </c>
       <c r="D76" t="n">
-        <v>76033</v>
+        <v>39499</v>
       </c>
       <c r="E76" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5118</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-13.5</v>
+        <v>-26.1</v>
       </c>
       <c r="C77" t="n">
-        <v>2798</v>
+        <v>7416</v>
       </c>
       <c r="D77" t="n">
-        <v>73224</v>
+        <v>46915</v>
       </c>
       <c r="E77" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>73224</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>37.9</v>
+        <v>-12.3</v>
       </c>
       <c r="C78" t="n">
-        <v>4148</v>
+        <v>7236</v>
       </c>
       <c r="D78" t="n">
-        <v>77372</v>
+        <v>54151</v>
       </c>
       <c r="E78" t="n">
-        <v>33</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4148</v>
+        <v>-18.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2521</v>
+      </c>
       <c r="D79" t="n">
-        <v>9476</v>
+        <v>43421</v>
       </c>
       <c r="E79" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9476</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-3.8</v>
+        <v>-2.3</v>
       </c>
       <c r="C80" t="n">
-        <v>7916</v>
+        <v>2542</v>
       </c>
       <c r="D80" t="n">
-        <v>17396</v>
+        <v>45963</v>
       </c>
       <c r="E80" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F80" t="n">
-        <v>7920</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-15</v>
+        <v>56.8</v>
       </c>
       <c r="C81" t="n">
-        <v>7478</v>
+        <v>5089</v>
       </c>
       <c r="D81" t="n">
-        <v>25095</v>
+        <v>51052</v>
       </c>
       <c r="E81" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>7699</v>
+        <v>-18.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-45.1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>4433</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>29528</v>
+        <v>9189</v>
       </c>
       <c r="E82" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F82" t="n">
-        <v>4433</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-40.6</v>
+        <v>3.7</v>
       </c>
       <c r="C83" t="n">
-        <v>3977</v>
+        <v>8286</v>
       </c>
       <c r="D83" t="n">
-        <v>33505</v>
+        <v>17475</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3977</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-35.8</v>
+        <v>-49.7</v>
       </c>
       <c r="C84" t="n">
-        <v>5969</v>
+        <v>3780</v>
       </c>
       <c r="D84" t="n">
-        <v>39499</v>
+        <v>21255</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5994</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-26.1</v>
+        <v>-37.1</v>
       </c>
       <c r="C85" t="n">
-        <v>7416</v>
+        <v>2795</v>
       </c>
       <c r="D85" t="n">
-        <v>46915</v>
+        <v>24186</v>
       </c>
       <c r="E85" t="n">
-        <v>-19</v>
-      </c>
-      <c r="F85" t="n">
-        <v>7416</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-12.3</v>
+        <v>-30.8</v>
       </c>
       <c r="C86" t="n">
-        <v>7236</v>
+        <v>2759</v>
       </c>
       <c r="D86" t="n">
-        <v>54151</v>
+        <v>26945</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>7236</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-33.7</v>
+        <v>-41</v>
       </c>
       <c r="C87" t="n">
-        <v>2980</v>
+        <v>3528</v>
       </c>
       <c r="D87" t="n">
-        <v>57131</v>
+        <v>30472</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2980</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-9.9</v>
+        <v>-18.3</v>
       </c>
       <c r="C88" t="n">
-        <v>2602</v>
+        <v>6071</v>
       </c>
       <c r="D88" t="n">
-        <v>59733</v>
+        <v>36543</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.8</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2602</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-21.8</v>
+        <v>-45.3</v>
       </c>
       <c r="C89" t="n">
-        <v>3246</v>
+        <v>3965</v>
       </c>
       <c r="D89" t="n">
-        <v>62979</v>
+        <v>40905</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3246</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2151</v>
+      </c>
       <c r="D90" t="n">
-        <v>9189</v>
+        <v>33318</v>
       </c>
       <c r="E90" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>9189</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.7</v>
+        <v>-30.5</v>
       </c>
       <c r="C91" t="n">
-        <v>8286</v>
+        <v>1888</v>
       </c>
       <c r="D91" t="n">
-        <v>17475</v>
+        <v>35199</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>8286</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-49.7</v>
+        <v>-45.2</v>
       </c>
       <c r="C92" t="n">
-        <v>3780</v>
+        <v>2958</v>
       </c>
       <c r="D92" t="n">
-        <v>21255</v>
+        <v>40147</v>
       </c>
       <c r="E92" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3780</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-37.1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2795</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>24186</v>
+        <v>8882</v>
       </c>
       <c r="E93" t="n">
-        <v>-18.3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2931</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-30.8</v>
+        <v>-17.5</v>
       </c>
       <c r="C94" t="n">
-        <v>2759</v>
+        <v>7014</v>
       </c>
       <c r="D94" t="n">
-        <v>26945</v>
+        <v>16028</v>
       </c>
       <c r="E94" t="n">
-        <v>-19.7</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2759</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-41</v>
+        <v>-20</v>
       </c>
       <c r="C95" t="n">
-        <v>3528</v>
+        <v>3175</v>
       </c>
       <c r="D95" t="n">
-        <v>30472</v>
+        <v>18407</v>
       </c>
       <c r="E95" t="n">
-        <v>-23</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3527</v>
+        <v>-16.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-18.3</v>
+        <v>-35</v>
       </c>
       <c r="C96" t="n">
-        <v>6071</v>
+        <v>1959</v>
       </c>
       <c r="D96" t="n">
-        <v>36543</v>
+        <v>20301</v>
       </c>
       <c r="E96" t="n">
-        <v>-22.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>6071</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-45.3</v>
+        <v>-31.2</v>
       </c>
       <c r="C97" t="n">
-        <v>3965</v>
+        <v>1733</v>
       </c>
       <c r="D97" t="n">
-        <v>40905</v>
+        <v>22081</v>
       </c>
       <c r="E97" t="n">
-        <v>-24.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>4362</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-15.4</v>
+        <v>-28</v>
       </c>
       <c r="C98" t="n">
-        <v>2521</v>
+        <v>3098</v>
       </c>
       <c r="D98" t="n">
-        <v>43421</v>
+        <v>25179</v>
       </c>
       <c r="E98" t="n">
-        <v>-24</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2516</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-2.3</v>
+        <v>-43.9</v>
       </c>
       <c r="C99" t="n">
-        <v>2542</v>
+        <v>4106</v>
       </c>
       <c r="D99" t="n">
-        <v>45963</v>
+        <v>29222</v>
       </c>
       <c r="E99" t="n">
-        <v>-23</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2542</v>
+        <v>-25.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>56.8</v>
+        <v>-37.8</v>
       </c>
       <c r="C100" t="n">
-        <v>5089</v>
+        <v>2682</v>
       </c>
       <c r="D100" t="n">
-        <v>51052</v>
+        <v>31704</v>
       </c>
       <c r="E100" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5089</v>
+        <v>-26.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2562</v>
+      </c>
       <c r="D101" t="n">
-        <v>8882</v>
+        <v>31970</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>8882</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-17.5</v>
+        <v>105.6</v>
       </c>
       <c r="C102" t="n">
-        <v>7014</v>
+        <v>4110</v>
       </c>
       <c r="D102" t="n">
-        <v>16028</v>
+        <v>36101</v>
       </c>
       <c r="E102" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>7146</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-20</v>
+        <v>25.2</v>
       </c>
       <c r="C103" t="n">
-        <v>3175</v>
+        <v>3956</v>
       </c>
       <c r="D103" t="n">
-        <v>18407</v>
+        <v>40020</v>
       </c>
       <c r="E103" t="n">
-        <v>-16.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2379</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>-35</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1959</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>20301</v>
+        <v>6209</v>
       </c>
       <c r="E104" t="n">
-        <v>-19.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1894</v>
+        <v>-29.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-31.2</v>
+        <v>-18.3</v>
       </c>
       <c r="C105" t="n">
-        <v>1733</v>
+        <v>4970</v>
       </c>
       <c r="D105" t="n">
-        <v>22081</v>
+        <v>11177</v>
       </c>
       <c r="E105" t="n">
-        <v>-20.4</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1780</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-28</v>
+        <v>23.5</v>
       </c>
       <c r="C106" t="n">
-        <v>3098</v>
+        <v>3787</v>
       </c>
       <c r="D106" t="n">
-        <v>25179</v>
+        <v>14879</v>
       </c>
       <c r="E106" t="n">
-        <v>-21.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3098</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-43.9</v>
+        <v>27.1</v>
       </c>
       <c r="C107" t="n">
-        <v>4106</v>
+        <v>2578</v>
       </c>
       <c r="D107" t="n">
-        <v>29222</v>
+        <v>18411</v>
       </c>
       <c r="E107" t="n">
-        <v>-25.8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>4043</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.8</v>
+        <v>1.9</v>
       </c>
       <c r="C108" t="n">
-        <v>2682</v>
+        <v>1694</v>
       </c>
       <c r="D108" t="n">
-        <v>31704</v>
+        <v>20105</v>
       </c>
       <c r="E108" t="n">
-        <v>-26.4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2482</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-18.1</v>
+        <v>-17.9</v>
       </c>
       <c r="C109" t="n">
-        <v>2151</v>
+        <v>2664</v>
       </c>
       <c r="D109" t="n">
-        <v>33318</v>
+        <v>21691</v>
       </c>
       <c r="E109" t="n">
-        <v>-27.1</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1614</v>
+        <v>-15.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-30.5</v>
+        <v>-7.6</v>
       </c>
       <c r="C110" t="n">
-        <v>1888</v>
+        <v>3868</v>
       </c>
       <c r="D110" t="n">
-        <v>35199</v>
+        <v>24522</v>
       </c>
       <c r="E110" t="n">
-        <v>-27.3</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1881</v>
+        <v>-16.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-45.2</v>
+        <v>42</v>
       </c>
       <c r="C111" t="n">
-        <v>2958</v>
+        <v>4218</v>
       </c>
       <c r="D111" t="n">
-        <v>40147</v>
+        <v>29407</v>
       </c>
       <c r="E111" t="n">
-        <v>-27.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4948</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7498</v>
+      </c>
       <c r="D112" t="n">
-        <v>6209</v>
+        <v>54941</v>
       </c>
       <c r="E112" t="n">
-        <v>-29.6</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6209</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-18.3</v>
+        <v>55.8</v>
       </c>
       <c r="C113" t="n">
-        <v>4970</v>
+        <v>7006</v>
       </c>
       <c r="D113" t="n">
-        <v>11177</v>
+        <v>61949</v>
       </c>
       <c r="E113" t="n">
-        <v>-24.9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4968</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>23.5</v>
+        <v>78</v>
       </c>
       <c r="C114" t="n">
-        <v>3787</v>
+        <v>8218</v>
       </c>
       <c r="D114" t="n">
-        <v>14879</v>
+        <v>70432</v>
       </c>
       <c r="E114" t="n">
-        <v>-17.1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3702</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2578</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>18411</v>
+        <v>4846</v>
       </c>
       <c r="E115" t="n">
-        <v>-10</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3532</v>
+        <v>-26.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.9</v>
+        <v>36.6</v>
       </c>
       <c r="C116" t="n">
-        <v>1694</v>
+        <v>6947</v>
       </c>
       <c r="D116" t="n">
-        <v>20105</v>
+        <v>11714</v>
       </c>
       <c r="E116" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1694</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-17.9</v>
+        <v>55.3</v>
       </c>
       <c r="C117" t="n">
-        <v>2664</v>
+        <v>7980</v>
       </c>
       <c r="D117" t="n">
-        <v>21691</v>
+        <v>19679</v>
       </c>
       <c r="E117" t="n">
-        <v>-15.6</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1586</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-7.6</v>
+        <v>95.5</v>
       </c>
       <c r="C118" t="n">
-        <v>3868</v>
+        <v>5300</v>
       </c>
       <c r="D118" t="n">
-        <v>24522</v>
+        <v>24979</v>
       </c>
       <c r="E118" t="n">
-        <v>-16.8</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2831</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>42</v>
+        <v>136.3</v>
       </c>
       <c r="C119" t="n">
-        <v>4218</v>
+        <v>4415</v>
       </c>
       <c r="D119" t="n">
-        <v>29407</v>
+        <v>29394</v>
       </c>
       <c r="E119" t="n">
-        <v>-11.1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4885</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8.6</v>
+        <v>96.8</v>
       </c>
       <c r="C120" t="n">
-        <v>2562</v>
+        <v>5555</v>
       </c>
       <c r="D120" t="n">
-        <v>31970</v>
+        <v>34784</v>
       </c>
       <c r="E120" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2563</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>105.6</v>
+        <v>60.7</v>
       </c>
       <c r="C121" t="n">
-        <v>4110</v>
+        <v>6579</v>
       </c>
       <c r="D121" t="n">
-        <v>36101</v>
+        <v>39449</v>
       </c>
       <c r="E121" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4131</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25.2</v>
+        <v>81.5</v>
       </c>
       <c r="C122" t="n">
-        <v>3956</v>
+        <v>8023</v>
       </c>
       <c r="D122" t="n">
-        <v>40020</v>
+        <v>47469</v>
       </c>
       <c r="E122" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3919</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-35.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5573</v>
+      </c>
       <c r="D123" t="n">
-        <v>4846</v>
+        <v>80811</v>
       </c>
       <c r="E123" t="n">
-        <v>-26.6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>4846</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>36.6</v>
+        <v>-14.6</v>
       </c>
       <c r="C124" t="n">
-        <v>6947</v>
+        <v>7855</v>
       </c>
       <c r="D124" t="n">
-        <v>11714</v>
+        <v>88964</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6868</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>55.3</v>
+        <v>1.8</v>
       </c>
       <c r="C125" t="n">
-        <v>7980</v>
+        <v>9603</v>
       </c>
       <c r="D125" t="n">
-        <v>19679</v>
+        <v>98648</v>
       </c>
       <c r="E125" t="n">
-        <v>16</v>
-      </c>
-      <c r="F125" t="n">
-        <v>7965</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5300</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>24979</v>
+        <v>14657</v>
       </c>
       <c r="E126" t="n">
-        <v>27</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5300</v>
+        <v>154.6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>136.3</v>
+        <v>74.7</v>
       </c>
       <c r="C127" t="n">
-        <v>4415</v>
+        <v>13508</v>
       </c>
       <c r="D127" t="n">
-        <v>29394</v>
+        <v>28745</v>
       </c>
       <c r="E127" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4415</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>96.8</v>
+        <v>15.6</v>
       </c>
       <c r="C128" t="n">
-        <v>5555</v>
+        <v>11395</v>
       </c>
       <c r="D128" t="n">
-        <v>34784</v>
+        <v>39900</v>
       </c>
       <c r="E128" t="n">
-        <v>47</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5390</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>60.7</v>
+        <v>7</v>
       </c>
       <c r="C129" t="n">
-        <v>6579</v>
+        <v>7313</v>
       </c>
       <c r="D129" t="n">
-        <v>39449</v>
+        <v>46502</v>
       </c>
       <c r="E129" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>4665</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>81.5</v>
+        <v>-5.3</v>
       </c>
       <c r="C130" t="n">
-        <v>8023</v>
+        <v>4501</v>
       </c>
       <c r="D130" t="n">
-        <v>47469</v>
+        <v>51179</v>
       </c>
       <c r="E130" t="n">
-        <v>55</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8020</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>158.3</v>
+        <v>-5.8</v>
       </c>
       <c r="C131" t="n">
-        <v>7498</v>
+        <v>6011</v>
       </c>
       <c r="D131" t="n">
-        <v>54941</v>
+        <v>56969</v>
       </c>
       <c r="E131" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>7472</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>55.8</v>
+        <v>12.6</v>
       </c>
       <c r="C132" t="n">
-        <v>7006</v>
+        <v>7927</v>
       </c>
       <c r="D132" t="n">
-        <v>61949</v>
+        <v>64896</v>
       </c>
       <c r="E132" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7008</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>78</v>
+        <v>4.3</v>
       </c>
       <c r="C133" t="n">
-        <v>8218</v>
+        <v>9822</v>
       </c>
       <c r="D133" t="n">
-        <v>70432</v>
+        <v>75192</v>
       </c>
       <c r="E133" t="n">
-        <v>56</v>
-      </c>
-      <c r="F133" t="n">
-        <v>8483</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9240</v>
+      </c>
       <c r="D134" t="n">
-        <v>14657</v>
+        <v>93400</v>
       </c>
       <c r="E134" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14657</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>74.7</v>
+        <v>12</v>
       </c>
       <c r="C135" t="n">
-        <v>13508</v>
+        <v>8725</v>
       </c>
       <c r="D135" t="n">
-        <v>28745</v>
+        <v>102082</v>
       </c>
       <c r="E135" t="n">
-        <v>113.8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>14088</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>15.6</v>
+        <v>-41.2</v>
       </c>
       <c r="C136" t="n">
-        <v>11395</v>
+        <v>5572</v>
       </c>
       <c r="D136" t="n">
-        <v>39900</v>
+        <v>107647</v>
       </c>
       <c r="E136" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>11155</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>7313</v>
-      </c>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>46502</v>
+        <v>17501</v>
       </c>
       <c r="E137" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6602</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-5.3</v>
+        <v>-23.5</v>
       </c>
       <c r="C138" t="n">
-        <v>4501</v>
+        <v>10128</v>
       </c>
       <c r="D138" t="n">
-        <v>51179</v>
+        <v>26793</v>
       </c>
       <c r="E138" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4677</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-5.8</v>
+        <v>-12.1</v>
       </c>
       <c r="C139" t="n">
-        <v>6011</v>
+        <v>10146</v>
       </c>
       <c r="D139" t="n">
-        <v>56969</v>
+        <v>36918</v>
       </c>
       <c r="E139" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5790</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>12.6</v>
+        <v>-0.8</v>
       </c>
       <c r="C140" t="n">
-        <v>7927</v>
+        <v>7429</v>
       </c>
       <c r="D140" t="n">
-        <v>64896</v>
+        <v>44345</v>
       </c>
       <c r="E140" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>7927</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.3</v>
+        <v>28.1</v>
       </c>
       <c r="C141" t="n">
-        <v>9822</v>
+        <v>5967</v>
       </c>
       <c r="D141" t="n">
-        <v>75192</v>
+        <v>50314</v>
       </c>
       <c r="E141" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10296</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-35.8</v>
+        <v>43.4</v>
       </c>
       <c r="C142" t="n">
-        <v>5573</v>
+        <v>8847</v>
       </c>
       <c r="D142" t="n">
-        <v>80811</v>
+        <v>59091</v>
       </c>
       <c r="E142" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5619</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-14.6</v>
+        <v>58.7</v>
       </c>
       <c r="C143" t="n">
-        <v>7855</v>
+        <v>12444</v>
       </c>
       <c r="D143" t="n">
-        <v>88964</v>
+        <v>71535</v>
       </c>
       <c r="E143" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8153</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.8</v>
+        <v>30.8</v>
       </c>
       <c r="C144" t="n">
-        <v>9603</v>
+        <v>12678</v>
       </c>
       <c r="D144" t="n">
-        <v>98648</v>
+        <v>84175</v>
       </c>
       <c r="E144" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>9684</v>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>18915</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>11951</v>
+      </c>
+      <c r="D146" t="n">
+        <v>30738</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11539</v>
+      </c>
+      <c r="D147" t="n">
+        <v>42113</v>
+      </c>
+      <c r="E147" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9503</v>
+      </c>
+      <c r="D148" t="n">
+        <v>51884</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6385</v>
+      </c>
+      <c r="D149" t="n">
+        <v>58523</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>
